--- a/DietMenu.Core/src/SilentMike.DietMenu.Core.Infrastructure/Ingredients.xlsx
+++ b/DietMenu.Core/src/SilentMike.DietMenu.Core.Infrastructure/Ingredients.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">Przelicznik</t>
   </si>
   <si>
-    <t xml:space="preserve">InternalName</t>
+    <t xml:space="preserve">Id</t>
   </si>
   <si>
     <t xml:space="preserve">Amarantus</t>
@@ -1498,16 +1498,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1524,650 +1528,650 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>4.1</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="s">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="s">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="s">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" s="0" t="s">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D30" s="0" t="s">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D31" s="0" t="s">
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="s">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D34" s="0" t="s">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" s="0" t="s">
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="0" t="s">
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D37" s="0" t="s">
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="0" t="n">
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="0" t="n">
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="0" t="n">
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="0" t="n">
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2183,650 +2187,650 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="45.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>3.7</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>0.33</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="0" t="n">
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="3" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="0" t="n">
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>3.2</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="0" t="n">
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="0" t="n">
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="0" t="n">
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2842,440 +2846,440 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="38.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>5.6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>4.7</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>6.9</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>7.1</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>2.4</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>3.1</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>238</v>
       </c>
     </row>
@@ -3291,272 +3295,272 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="0" t="s">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3572,819 +3576,819 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="41.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="44.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="41.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="44.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="n">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="0" t="n">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D25" s="0" t="s">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="0" t="s">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D32" s="0" t="s">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="0" t="n">
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="0" t="n">
+      <c r="B39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B40" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="0" t="n">
+      <c r="B40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" s="1" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="0" t="n">
+      <c r="B42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="1" t="n">
         <v>6.2</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="0" t="n">
+      <c r="B43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="0" t="n">
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" s="1" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="0" t="n">
+      <c r="B45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="1" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="0" t="n">
+      <c r="B46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" s="0" t="s">
+      <c r="B47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="0" t="n">
+      <c r="B48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B49" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="0" t="n">
+      <c r="B49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="0" t="n">
+      <c r="B50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="0" t="n">
+      <c r="B51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="s">
+      <c r="B52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B53" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="0" t="n">
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="0" t="n">
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" s="1" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B55" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="0" t="n">
+      <c r="B55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="1" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B56" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="0" t="n">
+      <c r="B56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="1" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B57" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="0" t="n">
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="1" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4400,566 +4404,566 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D39" activeCellId="0" sqref="D39"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="39.14"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="0" t="n">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="0" t="n">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>1.1</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="0" t="n">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0" t="n">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="0" t="n">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="0" t="n">
+      <c r="B18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="0" t="n">
+      <c r="B20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B21" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="0" t="n">
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="0" t="n">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B23" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="0" t="n">
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" s="1" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="0" t="n">
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="0" t="n">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="1" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="0" t="n">
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" s="1" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="0" t="n">
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" s="1" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="0" t="n">
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" s="1" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="n">
         <v>2.2</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" s="1" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="0" t="n">
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>2.9</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" s="1" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B32" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="0" t="n">
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" s="1" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="0" t="n">
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="n">
         <v>1.4</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" s="1" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="0" t="n">
+      <c r="B34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" s="1" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="0" t="n">
+      <c r="B35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1" t="n">
         <v>2.6</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" s="1" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B36" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="0" t="n">
+      <c r="B36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="n">
         <v>2.1</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" s="1" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B37" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="0" t="n">
+      <c r="B37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" s="1" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B38" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="0" t="n">
+      <c r="B38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1" t="n">
         <v>2.3</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" s="1" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="B39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" s="0" t="s">
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4975,40 +4979,46 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-    </row>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
